--- a/templates/template-angebot_deu_v2.11.xlsx
+++ b/templates/template-angebot_deu_v2.11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Datenbank\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\eclipse.workspace\facturaX\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D6CFB4-C3FD-478C-9347-B6484ADF8237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0B2997-905A-4A56-AACB-3FA9F7DBA35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BDB31136-F42A-43E6-B94C-7A1AD5286F65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">BIC:   </t>
   </si>
@@ -83,36 +83,6 @@
     <t>AGB Download</t>
   </si>
   <si>
-    <t>{A12}</t>
-  </si>
-  <si>
-    <t>{A13}</t>
-  </si>
-  <si>
-    <t>{A14}</t>
-  </si>
-  <si>
-    <t>{A33}</t>
-  </si>
-  <si>
-    <t>{A36}</t>
-  </si>
-  <si>
-    <t>{A37}</t>
-  </si>
-  <si>
-    <t>{A39}</t>
-  </si>
-  <si>
-    <t>{A40}</t>
-  </si>
-  <si>
-    <t>{A44}</t>
-  </si>
-  <si>
-    <t>{A47}</t>
-  </si>
-  <si>
     <t>{Owner}</t>
   </si>
   <si>
@@ -134,7 +104,34 @@
     <t>{Recipient}</t>
   </si>
   <si>
-    <t>{A15}</t>
+    <t>{Anrede}</t>
+  </si>
+  <si>
+    <t>{Dank}</t>
+  </si>
+  <si>
+    <t>{LBvorh}</t>
+  </si>
+  <si>
+    <t>{AGB}</t>
+  </si>
+  <si>
+    <t>{Kondition}</t>
+  </si>
+  <si>
+    <t>{Gültig}</t>
+  </si>
+  <si>
+    <t>{Satz1}</t>
+  </si>
+  <si>
+    <t>{Satz2}</t>
+  </si>
+  <si>
+    <t>{Gruß}</t>
+  </si>
+  <si>
+    <t>{Name}</t>
   </si>
 </sst>
 </file>
@@ -455,10 +452,8 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -545,12 +540,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -610,6 +599,24 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -959,10 +966,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F15"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -977,433 +984,565 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="51"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="51"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="51"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="51"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="51"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="51"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="51"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="51"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="51"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="51"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="51"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="51"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="55"/>
+      <c r="E47" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-    </row>
-    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="E43" s="2"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="E45" s="2"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-    </row>
-    <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="51"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="37">
+  <mergeCells count="38">
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="A47:B47"/>
@@ -1436,13 +1575,8 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A33:D33"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations disablePrompts="1" count="6">
     <dataValidation allowBlank="1" sqref="C1 C3:E11 B2:B11 B15:F15 A1 F9:F11 F3:F7 A12:A14" xr:uid="{21824488-88C6-453E-8F38-8F58E590857F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Die fällige Summe wird in der Zelle rechts automatisch berechnet." sqref="E32" xr:uid="{FDC6BADA-EDCE-4D75-888F-9B0F60BA932B}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Die fällige Summe wird in dieser Zelle automatisch berechnet." sqref="E32" xr:uid="{630554CC-652C-4DD7-B4EF-D274C17FF7AD}"/>
